--- a/game/MMO/ExcelMMO/recharge.xlsx
+++ b/game/MMO/ExcelMMO/recharge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B5D07-F3B5-41E9-BE27-B2E01B385A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A746C0-1557-45AA-BA35-5D60AFC92C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -5127,14 +5127,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -5908,10 +5901,10 @@
   <dimension ref="A1:AL1238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="T48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="T60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55:AB57"/>
+      <selection pane="bottomRight" activeCell="V77" sqref="V77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -55788,19 +55781,19 @@
   <autoFilter ref="A4:AL1224" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:E98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D98">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
